--- a/data/VOC Monthly Infographic - Hyperlinks_neil_gardner.xlsx
+++ b/data/VOC Monthly Infographic - Hyperlinks_neil_gardner.xlsx
@@ -686,12 +686,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 3 WF</t>
+          <t>Kimberly Clark</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>60574</t>
+          <t>30902</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -704,7 +704,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10">
@@ -715,12 +715,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kimberly Clark</t>
+          <t>Wells Fargo Charlotte 3 WF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30902</t>
+          <t>60574</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -802,12 +802,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte The Green</t>
+          <t>Wells Fargo Denver</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>44984</t>
+          <t>57093</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>4.45</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="14">
@@ -831,12 +831,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wells Fargo Denver</t>
+          <t>Wells Fargo Charlotte The Green</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>57093</t>
+          <t>44984</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>4.91</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="15">
@@ -947,12 +947,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte Brevard</t>
+          <t>Wells Fargo Boston</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>60575</t>
+          <t>44987</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -976,12 +976,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Wells Fargo Boston</t>
+          <t>Wells Fargo Charlotte Brevard</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>44987</t>
+          <t>60575</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1063,12 +1063,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wells Fargo Minneapolis WF Center</t>
+          <t>Wells Fargo Charlotte WF Auditorium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>60582</t>
+          <t>60578</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte WF Auditorium</t>
+          <t>Wells Fargo San Francisco 333 Market</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>60578</t>
+          <t>44809</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1110,7 +1110,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wells Fargo San Francisco 333 Market</t>
+          <t>Merck Conference Center  NJ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>44809</t>
+          <t>18770</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Merck Conference Center  NJ</t>
+          <t>Wells Fargo Minneapolis WF Center</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18770</t>
+          <t>60582</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wells Fargo San Francisco Concord</t>
+          <t>Wells Fargo Charlotte CIC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>60585</t>
+          <t>60577</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte CIC</t>
+          <t>Wells Fargo San Francisco Concord</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>60577</t>
+          <t>60585</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Warner Bros Discovery</t>
+          <t>Cap One M3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17403</t>
+          <t>61320</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Captial One - NY</t>
+          <t>Warner Bros Discovery</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>50902</t>
+          <t>17403</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pfizer - Lake Forest</t>
+          <t>Accenture 1MW</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>41056</t>
+          <t>47816</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1347,12 +1347,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pfizer - Cambridge</t>
+          <t>Citi Weill Ctr A&amp;G</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>25013</t>
+          <t>28045</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Accenture Boston</t>
+          <t>Citi Weill Ctr Room</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>43177</t>
+          <t>28042</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pfizer - Peapack</t>
+          <t>BlackRock SFO</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>25454</t>
+          <t>46301</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AT&amp;T EECC - Catering</t>
+          <t>Pfizer -  LaJolla</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19952</t>
+          <t>40763</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Accenture 1MW</t>
+          <t>ExxonMobile Conference Center</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>47816</t>
+          <t>23230</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1482,12 +1482,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pfizer - Collegeville</t>
+          <t>Citigroup Conference &amp; Reception Services</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>25012</t>
+          <t>19662</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Accenture DC</t>
+          <t>Capital One - Philly</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>59869</t>
+          <t>62636</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pfizer - Groton</t>
+          <t>Accenture Houston</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>22159</t>
+          <t>50593</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AT&amp;T EECC - Gabriels</t>
+          <t>Nixon Peabody Chicago</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19947</t>
+          <t>59478</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1590,12 +1590,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AT&amp;T Education Ctr/ U of Texas</t>
+          <t>Accenture - Cambridge</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19945</t>
+          <t>47815</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>UVA Darden DC</t>
+          <t>Accenture San Jose</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>44274</t>
+          <t>47818</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Citigroup Conference &amp; Reception Services</t>
+          <t>Pfizer - Parsippany</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>19662</t>
+          <t>24544</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Pfizer - Tampa</t>
+          <t>Accenture DC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>58872</t>
+          <t>59869</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Pfizer -  LaJolla</t>
+          <t>Granville Inn</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>40763</t>
+          <t>57685</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Pfizer - Parsippany</t>
+          <t>Accenture Boston</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>24544</t>
+          <t>43177</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1752,12 +1752,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wells Fargo Minneapolis HMMC</t>
+          <t>BNY Mellon Greenwich</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>60581</t>
+          <t>31445</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pfizer - St Louis</t>
+          <t>AT&amp;T EECC - Gabriels</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47819</t>
+          <t>19947</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Allainz Conference Center</t>
+          <t>Wells Fargo Minneapolis HMMC</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>25909</t>
+          <t>60581</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bank of New York Mellon</t>
+          <t>Accenture Rosslyn</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31445</t>
+          <t>44817</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Darden Dining</t>
+          <t>Honeywell - Phoenix</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>40251</t>
+          <t>15604</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Citi Weill Ctr A&amp;G</t>
+          <t>Capital One - Glen Allen</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>28045</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AT&amp;T EECC - Moontower Cafe</t>
+          <t>Capital One - Atlanta</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>42266</t>
+          <t>61570</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Accenture Houston</t>
+          <t>Pfizer - Collegeville</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>50593</t>
+          <t>25012</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Earle Brown Heritage Center</t>
+          <t>Pfizer - Lake Forest</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6072</t>
+          <t>41056</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ExxonMobile Conference Center</t>
+          <t>BlackRock NYC</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>23230</t>
+          <t>46269</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nixon Peabody Chicago</t>
+          <t>Babson Executive Conference Ctr</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>59478</t>
+          <t>18370</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -2049,12 +2049,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Clifford Chance</t>
+          <t>Wells Fargo Des Moines HMHQ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13564</t>
+          <t>44985</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Accenture SF</t>
+          <t>BNY Mellon - Boston</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>45533</t>
+          <t>63992</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -2103,12 +2103,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Citi Weill Ctr F&amp;B</t>
+          <t>Bank of New York Mellon</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>28043</t>
+          <t>31445</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BNY Mellon - Boston</t>
+          <t>Clifford Chance</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>63992</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Accenture San Jose</t>
+          <t>Pfizer - Cambridge</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>47818</t>
+          <t>25013</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -2184,12 +2184,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BNY Mellon Greenwich</t>
+          <t>ExxonMobil</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>31445</t>
+          <t>28534</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bank of New York Mellon</t>
+          <t>Akin Gump NY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>31445</t>
+          <t>60453</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2238,12 +2238,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BNY Mellon Bank Grant</t>
+          <t>Allainz Conference Center</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>31449</t>
+          <t>25909</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gallaudet University - Rooms</t>
+          <t xml:space="preserve">Capital One - Flatiron </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12834</t>
+          <t>62265</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Capital One - Flatiron </t>
+          <t>BNY Mellon Bank Park</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>62265</t>
+          <t>31447</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Capital One - McLean 2</t>
+          <t>Capital One - Chicago</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>44926</t>
+          <t>50903</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2346,12 +2346,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Freshfields Rapport</t>
+          <t>Pfizer - Tampa</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>64918</t>
+          <t>58872</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2373,12 +2373,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Capital One - West Creek</t>
+          <t>Citi Weill Ctr F&amp;B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>31466</t>
+          <t>28043</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -2400,12 +2400,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cap One M3</t>
+          <t>AT&amp;T Education Ctr/ U of Texas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>61320</t>
+          <t>19945</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2427,12 +2427,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pfizer - Pearl River</t>
+          <t>Capital One - Wilmington</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>25453</t>
+          <t>31465</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -2454,12 +2454,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BNY Mellon - NY</t>
+          <t>Gallaudet U. Kellogg - Food</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>61308</t>
+          <t>12828</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Accenture Rosslyn</t>
+          <t>Bank of New York Mellon</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>44817</t>
+          <t>31445</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Capital One - Philly</t>
+          <t>Darden Dining</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>62636</t>
+          <t>40251</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AT&amp;T EECC - 125 Coffee Bar</t>
+          <t>Earle Brown Heritage Center</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>19948</t>
+          <t>6072</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ExxonMobil</t>
+          <t>Freshfields Rapport</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>28534</t>
+          <t>64918</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Bank of New York Mellon - Philadelphia</t>
+          <t>Gallaudet University - Rooms</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>31448</t>
+          <t>12834</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wells Fargo Des Moines HMHQ</t>
+          <t>Pfizer - St Louis</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>44985</t>
+          <t>47819</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Accenture Chicago</t>
+          <t>BNY Mellon Bank Grant</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>58961</t>
+          <t>31449</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BNY Mellon Bank Park</t>
+          <t>Pfizer - Groton</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>31447</t>
+          <t>22159</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BlackRock SFO</t>
+          <t>Bank of New York Mellon - Philadelphia</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>46301</t>
+          <t>31448</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2724,12 +2724,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Capital One - Wilmington</t>
+          <t>UVA Darden DC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>31465</t>
+          <t>44274</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BlackRock NYC</t>
+          <t>Capital One - Plano</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>46269</t>
+          <t>50901</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2778,12 +2778,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gallaudet U. Kellogg - Food</t>
+          <t>Captial One - NY</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>12828</t>
+          <t>50902</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2805,12 +2805,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>AT&amp;T EECC - Carillon</t>
+          <t>AT&amp;T EECC - 125 Coffee Bar</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>19946</t>
+          <t>19948</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2832,12 +2832,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BNY Mellon Greenwich</t>
+          <t>Pfizer - Pearl River</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31445</t>
+          <t>25453</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Akin Gump NY</t>
+          <t>Pfizer - Peapack</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>60453</t>
+          <t>25454</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2886,12 +2886,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Honeywell - Phoenix</t>
+          <t>AT&amp;T EECC - Carillon</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15604</t>
+          <t>19946</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2913,12 +2913,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Babson Executive Conference Ctr</t>
+          <t>Capital One - McLean</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18370</t>
+          <t>31467</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Citi Weill Ctr Room</t>
+          <t>Accenture Chicago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>28042</t>
+          <t>58961</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Capital One - Atlanta</t>
+          <t>AT&amp;T EECC - Moontower Cafe</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>61570</t>
+          <t>42266</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2994,12 +2994,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Capital One - Chicago</t>
+          <t>Accenture SF</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>50903</t>
+          <t>45533</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Capital One - Glen Allen</t>
+          <t>BNY Mellon Greenwich</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>43210</t>
+          <t>31445</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Accenture - Cambridge</t>
+          <t>BNY Mellon - NY</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>47815</t>
+          <t>61308</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -3129,12 +3129,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Capital One - St Cloud</t>
+          <t>AT&amp;T EECC - Catering</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>50907</t>
+          <t>19952</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -3156,12 +3156,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Capital One - McLean</t>
+          <t>Capital One - St Cloud</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>31467</t>
+          <t>50907</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Granville Inn</t>
+          <t>Capital One - West Creek</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>57685</t>
+          <t>31466</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Capital One - Plano</t>
+          <t>Capital One - McLean 2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>50901</t>
+          <t>44926</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>32550</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AstraZeneca Conference Center</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>We miss Cynthia!!</t>
+          <t>Minor gripe that the meeting room was a bit stuffy, as if the HVAC wasn't filtering out air well. We were in rm 1cdn103.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3358,12 +3358,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>we missed Cynthia and Karen behind the bar.</t>
+          <t>We miss Cynthia!!</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>32550</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>AstraZeneca Conference Center</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minor gripe that the meeting room was a bit stuffy, as if the HVAC wasn't filtering out air well. We were in rm 1cdn103.</t>
+          <t>we missed Cynthia and Karen behind the bar.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">The room was extremely cold and we were told there was nothing they could do to adjust it. everyone was wearing coats in the meeting it was so cold, and we were in the room the entire day. </t>
+          <t>i didn't enjoy the menu at lunch and hardly ate anything.  This was the first time i experienced this. Normally everything is great.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>44810</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Wells Fargo Chandler</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>The chairs are very uncomfortable, at least ours in the Prickly Pear room were.</t>
+          <t xml:space="preserve">The room was extremely cold and we were told there was nothing they could do to adjust it. everyone was wearing coats in the meeting it was so cold, and we were in the room the entire day. </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -3748,12 +3748,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>60583</t>
+          <t>44810</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Wells Fargo NY Hudson Yards</t>
+          <t>Wells Fargo Chandler</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -3761,13 +3761,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Availability of rooms.  We have too few, and need to invest in several more/an entire floor.  Kitchen also needs to be expanded.</t>
+          <t>The chairs are very uncomfortable, at least ours in the Prickly Pear room were.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>60583</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Wells Fargo NY Hudson Yards</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
@@ -3802,17 +3802,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
+          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
+(Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>We had a real issue with the technology in the room functioning properly and consistently. The touchscreen would time out, causing the microphones to stop working, which was the most disruptive. Anna did try to assist us with that issue but wasn't able to. It would've been helpful to have a dedicated tech person available on-call to quickly assist us during our meetings if needed. The other issue we had was with the catering, I'm not sure if the catering is within the purview of Connections but we would love to provide some feedback there if at all possible.</t>
+          <t>Availability of rooms.  We have too few, and need to invest in several more/an entire floor.  Kitchen also needs to be expanded.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3842,13 +3843,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>i didn't enjoy the menu at lunch and hardly ate anything.  This was the first time i experienced this. Normally everything is great.</t>
+          <t>pork loin was dry, fish was bland</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -3870,12 +3871,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -3883,18 +3884,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
-(Select up to three) - Other, please specify: - Text</t>
+          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>pork loin was dry, fish was bland</t>
+          <t>We had a real issue with the technology in the room functioning properly and consistently. The touchscreen would time out, causing the microphones to stop working, which was the most disruptive. Anna did try to assist us with that issue but wasn't able to. It would've been helpful to have a dedicated tech person available on-call to quickly assist us during our meetings if needed. The other issue we had was with the catering, I'm not sure if the catering is within the purview of Connections but we would love to provide some feedback there if at all possible.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -3924,18 +3924,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
+          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>It would be really nice if you could somehow provide warm plates at breakfast for the scrambled eggs. By the time I go through the line and get to my table, my eggs are cold!  I guess I can just go through the line backwards and get my eggs last....</t>
+          <t>Unfortunately we could not use the room due to elevator maintenance and only one elevator available to 46th floor. This is so not good, we cannot expect people to wait 30mins to get a turn on an elevator. Not fault of connections but it was beyond disruptive.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3952,12 +3951,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -3965,17 +3964,18 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unfortunately we could not use the room due to elevator maintenance and only one elevator available to 46th floor. This is so not good, we cannot expect people to wait 30mins to get a turn on an elevator. Not fault of connections but it was beyond disruptive.</t>
+          <t>It would be really nice if you could somehow provide warm plates at breakfast for the scrambled eggs. By the time I go through the line and get to my table, my eggs are cold!  I guess I can just go through the line backwards and get my eggs last....</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>44809</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wells Fargo San Francisco 333 Market</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">the microphones, even held properly, were hard to hear </t>
+          <t>I believe we need more ease with equipment that is the only thing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>44810</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Chandler</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -4339,12 +4339,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>room was way too cold; tables were perpendicular to front wall/screen causing audience in the middle of the room to keep their heads at an uncomfortable angle to view presentations</t>
+          <t>Catering variety - it seems like the same meals every time.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
@@ -4380,12 +4380,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I believe we need more ease with equipment that is the only thing</t>
+          <t>after spending the day at UG on Tuesday Oct 15th, I was stomach sick for about 24 hours starting on that evening. I attribute this to something I ate that day as this rarely happens to me. I had locks for breakfast and beef for lunch.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>There should be easy to read instructions in every room to set up and use AV equipment</t>
+          <t>AV was not intuitive. Couldn’t connect via app, even with the help from IT.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4443,12 +4443,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>44810</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wells Fargo Chandler</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -4456,18 +4456,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Catering variety - it seems like the same meals every time.</t>
+          <t>Did not choose to dine outside of Merck</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4497,18 +4497,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
+          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>after spending the day at UG on Tuesday Oct 15th, I was stomach sick for about 24 hours starting on that evening. I attribute this to something I ate that day as this rarely happens to me. I had locks for breakfast and beef for lunch.</t>
+          <t>provided earlier, issue with food poisoning symptoms</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4538,18 +4537,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Did not choose to dine outside of Merck</t>
+          <t>Room was freezing cold; if it can't be fixed, please warn invitees to bring sweater.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4566,12 +4565,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>44826</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Minneapolis East Town</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -4579,12 +4578,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>provided earlier, issue with food poisoning symptoms</t>
+          <t>we did not receive the room confirmation and had to follow up a week before the mtg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>44826</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Minneapolis East Town</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -4619,180 +4619,180 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>help with navigating the loading dock, shipping after the event, and technology issues during event (microphone levels)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Neil Gardner</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>44809</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Wells Fargo San Francisco 333 Market</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">the microphones, even held properly, were hard to hear </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Neil Gardner</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9082</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Merck Training Center</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>There should be easy to read instructions in every room to set up and use AV equipment</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Neil Gardner</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9082</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Merck Training Center</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+(Select up to three) - Other, please specify: - Text</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>room was way too cold; tables were perpendicular to front wall/screen causing audience in the middle of the room to keep their heads at an uncomfortable angle to view presentations</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Neil Gardner</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9082</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Merck Training Center</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>AV issues were a consistent problem during our meeting.  
 These problems resulted in a sub-par meeting.
 There should be easy to read instructions in every room to set up and use AV equipment</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Neil Gardner</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>9082</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Merck Training Center</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>AV was not intuitive. Couldn’t connect via app, even with the help from IT.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Neil Gardner</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>9082</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Merck Training Center</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Room was freezing cold; if it can't be fixed, please warn invitees to bring sweater.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Neil Gardner</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>44826</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Wells Fargo Minneapolis East Town</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>we did not receive the room confirmation and had to follow up a week before the mtg</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Neil Gardner</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>44826</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Wells Fargo Minneapolis East Town</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45583</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>help with navigating the loading dock, shipping after the event, and technology issues during event (microphone levels)</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>2.00</t>
@@ -4825,13 +4825,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>There should be easy to read instructions in every room to set up and use AV equipment</t>
+          <t>the lines are long because people who eat there are so "polite" they don't to grab what they want and get out - they want to stand in line even if they only wanted one thing that was at the end of the line - this is a customer issue not a staff issue (lol)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4866,13 +4866,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>the lines are long because people who eat there are so "polite" they don't to grab what they want and get out - they want to stand in line even if they only wanted one thing that was at the end of the line - this is a customer issue not a staff issue (lol)</t>
+          <t>There should be easy to read instructions in every room to set up and use AV equipment</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4894,12 +4894,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -4907,13 +4907,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>Please let us know what was great about your [Field-TYPE].
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>I was there during a fire drill and the alarm in our room (1D014) did not work.  The exit doors did not fail open and people needed to "badge" out.</t>
+          <t>Didnt use the space.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4935,12 +4935,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -4948,13 +4948,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Please let us know what was great about your [Field-TYPE].
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Didnt use the space.</t>
+          <t>I was there during a fire drill and the alarm in our room (1D014) did not work.  The exit doors did not fail open and people needed to "badge" out.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23288</t>
+          <t>44988</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Merck AudioVisual Services</t>
+          <t>Wells Fargo St Louis</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Laser pointer alternatives</t>
+          <t xml:space="preserve">The tables for the event were not clean and needed to be wiped down. Signs also would have been useful to identify decaf coffee. </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5057,12 +5057,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>44988</t>
+          <t>23288</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wells Fargo St Louis</t>
+          <t>Merck AudioVisual Services</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">The tables for the event were not clean and needed to be wiped down. Signs also would have been useful to identify decaf coffee. </t>
+          <t>Laser pointer alternatives</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5117,12 +5117,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dined there the whole time</t>
+          <t>none of the above</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>none of the above</t>
+          <t>Dined there the whole time</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -5193,17 +5193,18 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+(Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>See comments about the fire alarm.</t>
+          <t>At the training Center, attendees like to have warm food that they cannot get at home (e.g., NOT sandwiches); however, often the food choices do not go together or are too eclectic for the mojority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5220,12 +5221,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>44810</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Wells Fargo Chandler</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -5233,13 +5234,13 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>Please let us know what was great about your [Field-TYPE].
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sinks in bathroom were difficult to turn on and had little water pressure. Caused a bottleneck during short breaks.</t>
+          <t>ease of catering too!</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5261,12 +5262,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>44810</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wells Fargo Chandler</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
@@ -5274,13 +5275,13 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Please let us know what was great about your [Field-TYPE].
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ease of catering too!</t>
+          <t>Conference room could have better seating.  The chairs were uncomfortable.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5321,7 +5322,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Conference room could have better seating.  The chairs were uncomfortable.</t>
+          <t xml:space="preserve">most attendees would prefer bottled water than faucet water that doesnt taste like the flavor that is written on the sign </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5362,12 +5363,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">most attendees would prefer bottled water than faucet water that doesnt taste like the flavor that is written on the sign </t>
+          <t xml:space="preserve">The breakfast was taken away before all of our members could eat prior to out event. </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5384,12 +5385,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>57551</t>
+          <t>60574</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Wells Fargo San Antonio</t>
+          <t>Wells Fargo Charlotte 3 WF</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -5397,18 +5398,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
+          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Navigation to the building, signage and finding the building is very difficult for rideshare/Uber/Lyft drivers.  We had trouble finding hte right building and place to be.  We could never get drivers to find us to pick us up at end of day, after several attempts.  </t>
+          <t>We had access issues as lines at building security was long in the morning with one security guard working there; also, the access cards our visitors participants received did not work after first entry and we had to go back to security desk during lunch and next day.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5425,12 +5425,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>57551</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo San Antonio</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">The breakfast was taken away before all of our members could eat prior to out event. </t>
+          <t xml:space="preserve">Navigation to the building, signage and finding the building is very difficult for rideshare/Uber/Lyft drivers.  We had trouble finding hte right building and place to be.  We could never get drivers to find us to pick us up at end of day, after several attempts.  </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5466,12 +5466,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>60574</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 3 WF</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -5479,17 +5479,18 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+(Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>We had access issues as lines at building security was long in the morning with one security guard working there; also, the access cards our visitors participants received did not work after first entry and we had to go back to security desk during lunch and next day.</t>
+          <t>I don't work at the US Location.  I was a visitor and I can't comment.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5506,12 +5507,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -5519,13 +5520,13 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>I don't work at the US Location.  I was a visitor and I can't comment.</t>
+          <t xml:space="preserve">The room was very hot and we had to call for help and still it did not cool down. </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5547,12 +5548,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -5560,13 +5561,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
-(Select up to three) - Other, please specify: - Text</t>
+          <t>Thank you for sharing feedback on your experience at [Field-Unit]. Please enter your preferred contact information and comments for our team. - Comments</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">The room was very hot and we had to call for help and still it did not cool down. </t>
+          <t>See comments about the fire alarm.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -5601,18 +5601,18 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>At the training Center, attendees like to have warm food that they cannot get at home (e.g., NOT sandwiches); however, often the food choices do not go together or are too eclectic for the mojority</t>
+          <t>Sinks in bathroom were difficult to turn on and had little water pressure. Caused a bottleneck during short breaks.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5793,12 +5793,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>61690</t>
+          <t>44984</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte 550</t>
+          <t>Wells Fargo Charlotte The Green</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>I was not able to connect to the Teams meeting we were hosting. Would be great if there were instructions printed out and left in the rooms</t>
+          <t>We had McAuliffe reserved for 2 days, and it was not ready for us when we arrived the morning of Oct 1. We were put in another room which our group did not fit in until McAuliffe was ready.  We were told it wasn't ready because someone on the Connections staff was off work the previous day. Also, breakfast was taken away at 9:30am each morning, which is way too early.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5847,18 +5847,18 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>not a fan of powdered scrambled eggs, but I understand the how/why of it</t>
+          <t>Not applicable as I am a visitor.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5894,12 +5894,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>The cafeteria is too noisy and the chairs make an awful sound.</t>
+          <t>not a fan of powdered scrambled eggs, but I understand the how/why of it</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5935,12 +5935,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>was hard to see the projected slide in the room, even with the lights turned off.  it neeeded to be a larger projection.</t>
+          <t>The cafeteria is too noisy and the chairs make an awful sound.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5957,12 +5957,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>61690</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte 550</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -5970,18 +5970,18 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Not applicable as I am a visitor.</t>
+          <t>I was not able to connect to the Teams meeting we were hosting. Would be great if there were instructions printed out and left in the rooms</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5998,12 +5998,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>44984</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte The Green</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>We had McAuliffe reserved for 2 days, and it was not ready for us when we arrived the morning of Oct 1. We were put in another room which our group did not fit in until McAuliffe was ready.  We were told it wasn't ready because someone on the Connections staff was off work the previous day. Also, breakfast was taken away at 9:30am each morning, which is way too early.</t>
+          <t>was hard to see the projected slide in the room, even with the lights turned off.  it neeeded to be a larger projection.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>44987</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Boston</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rest rooms are few are very far from the conference rooms. Difficult to locate them.</t>
+          <t>We need more large rooms</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>57093</t>
+          <t>44984</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Wells Fargo Denver</t>
+          <t>Wells Fargo Charlotte The Green</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -6216,18 +6216,18 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>More budget for food and for Wells Fargo gear</t>
+          <t xml:space="preserve">Your maps gave zero guidance for folks to find you. Too many hands in the pot replying to messages. </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6244,12 +6244,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>57551</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Wells Fargo San Antonio</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -6263,7 +6263,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dealing with when the sound doesn't work between sites via using Teams.</t>
+          <t>Rest rooms are few are very far from the conference rooms. Difficult to locate them.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6285,12 +6285,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>57551</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo San Antonio</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
@@ -6298,18 +6298,18 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>Dealing with when the sound doesn't work between sites via using Teams.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6339,18 +6339,18 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>offering wraps or healthier options than those tiny sandwiches that usually appear to have been sitting out for a while</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -6367,12 +6367,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>44984</t>
+          <t>57093</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte The Green</t>
+          <t>Wells Fargo Denver</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -6380,18 +6380,18 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Your maps gave zero guidance for folks to find you. Too many hands in the pot replying to messages. </t>
+          <t>More budget for food and for Wells Fargo gear</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>44984</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Wells Fargo Charlotte The Green</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
@@ -6421,18 +6421,18 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Noise level</t>
+          <t xml:space="preserve">Delayed response times, way too many people involved in answering back.. The Green cannot be found via address on Guardian for badge &amp; there are no instructions on your map to find The Green. </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6449,12 +6449,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>44987</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Wells Fargo Boston</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -6468,12 +6468,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>We need more large rooms</t>
+          <t>offering wraps or healthier options than those tiny sandwiches that usually appear to have been sitting out for a while</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>44984</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wells Fargo Charlotte The Green</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -6503,18 +6503,18 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When you choose not to dine at [Field-Unit] [Field-DAYPART] what is your reason?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delayed response times, way too many people involved in answering back.. The Green cannot be found via address on Guardian for badge &amp; there are no instructions on your map to find The Green. </t>
+          <t>Noise level</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6777,12 +6777,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>30902</t>
+          <t>9082</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Kimberly Clark</t>
+          <t>Merck Training Center</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -6790,13 +6790,13 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
+          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Ran out of certain foods on day one and it was over cooked.  Hard boiled eggs are half frozen.</t>
+          <t>preparing food in sanitary environment ??!! - this should be given, not a choice on this survey</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6900,12 +6900,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9082</t>
+          <t>30902</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Merck Training Center</t>
+          <t>Kimberly Clark</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -6913,13 +6913,13 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>When [Field-TYPE5] [Field-Unit], which of the following is most important to your [Field-TYPE]?
+          <t>We want to make sure your experience with [Field-Unit] is a good one. What could be improved about your [Field-TYPE]? 
 (Select up to three) - Other, please specify: - Text</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>preparing food in sanitary environment ??!! - this should be given, not a choice on this survey</t>
+          <t>Ran out of certain foods on day one and it was over cooked.  Hard boiled eggs are half frozen.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
